--- a/myapp/files/9_MethodComparePercent/Scenario 293.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 293.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2108</v>
+        <v>7658</v>
       </c>
       <c r="F2" t="n">
-        <v>2.95416006838853</v>
+        <v>1.66302919747657</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.56410256410256</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>31</v>
+        <v>11025</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0434435304174783</v>
+        <v>2.3942147952702</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>1.75438596491228</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.56410256410256</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.280204566924</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7078</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.53707504044649</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4054</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.880376125172373</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.30167106420405</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4739336492891</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10573</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.29605741772262</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.50877192982456</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.4218009478673</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11620</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.5234263873959</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.75438596491228</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.8957345971564</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>1911</v>
+        <v>8863</v>
       </c>
       <c r="F10" t="n">
-        <v>2.67808343960649</v>
+        <v>1.92470981682357</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.56410256410256</v>
+        <v>1.8957345971564</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1716</v>
+        <v>5234</v>
       </c>
       <c r="F11" t="n">
-        <v>2.40480961923848</v>
+        <v>1.13662768602669</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.56410256410256</v>
+        <v>1.8957345971564</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>5994</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.30167106420405</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.4739336492891</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>832</v>
+        <v>18966</v>
       </c>
       <c r="F13" t="n">
-        <v>1.16596830023684</v>
+        <v>4.11870093488387</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.75438596491228</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.56410256410256</v>
+        <v>2.8436018957346</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9388</v>
+        <v>41603</v>
       </c>
       <c r="F14" t="n">
-        <v>13.1563826954609</v>
+        <v>9.03460481883232</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>5.26315789473684</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>7.69230769230769</v>
+        <v>7.10900473933649</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7370</v>
+        <v>33643</v>
       </c>
       <c r="F15" t="n">
-        <v>10.3283490057037</v>
+        <v>7.30599259476422</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1087,10 +1087,10 @@
         <v>5.26315789473684</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>10.2564102564103</v>
+        <v>7.58293838862559</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6492</v>
+        <v>13473</v>
       </c>
       <c r="F16" t="n">
-        <v>9.09791611194417</v>
+        <v>2.92582820287306</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>3.50877192982456</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>10.2564102564103</v>
+        <v>5.21327014218009</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2836</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.615872395409188</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6627</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.43913482523861</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.8436018957346</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.56040913384801</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>3.50877192982456</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8.05687203791469</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>45426</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9.86481644353236</v>
       </c>
       <c r="G20" t="n">
         <v>21</v>
@@ -1277,10 +1277,10 @@
         <v>36.8421052631579</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>12.3222748815166</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2097</v>
+        <v>37477</v>
       </c>
       <c r="F21" t="n">
-        <v>2.93874462211136</v>
+        <v>8.13859300520104</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>10.5263157894737</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J21" t="n">
-        <v>5.12820512820513</v>
+        <v>10.9004739336493</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>164</v>
+        <v>2970</v>
       </c>
       <c r="F22" t="n">
-        <v>0.22983028995053</v>
+        <v>0.644972148929932</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.56410256410256</v>
+        <v>0.947867298578199</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>6449</v>
+        <v>13444</v>
       </c>
       <c r="F23" t="n">
-        <v>9.03765573104251</v>
+        <v>2.91953049502155</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.75438596491228</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>5.12820512820513</v>
+        <v>1.8957345971564</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>13080</v>
+        <v>27498</v>
       </c>
       <c r="F24" t="n">
-        <v>18.3303670277618</v>
+        <v>5.97153001726441</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1429,10 +1429,10 @@
         <v>7.01754385964912</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>10.2564102564103</v>
+        <v>5.68720379146919</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>9184</v>
+        <v>51139</v>
       </c>
       <c r="F25" t="n">
-        <v>12.8704962372297</v>
+        <v>11.1054648902787</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>5.26315789473684</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J25" t="n">
-        <v>20.5128205128205</v>
+        <v>10.9004739336493</v>
       </c>
       <c r="K25" t="n">
         <v>9</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>10535</v>
+        <v>55790</v>
       </c>
       <c r="F26" t="n">
-        <v>14.7637933209075</v>
+        <v>12.1154869322562</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -1505,10 +1505,10 @@
         <v>12.280701754386</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>15.3846153846154</v>
+        <v>9.95260663507109</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
